--- a/Analisis.xlsx
+++ b/Analisis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\davo2\OneDrive\Documentos\Desktop\Ulima\Cursos\EDA II\TrabajoFinal_EDA2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{19500B59-8958-4EAA-8D2D-96D12AE62E6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F21C2ACA-9D41-4B2C-A0EC-D79A6AD37BC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8E981F48-6E5D-4434-AEB1-AB5795A7AFCB}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
   <si>
     <t>Nodos</t>
   </si>
@@ -44,10 +44,31 @@
     <t>Aristas</t>
   </si>
   <si>
-    <t>Conexiones Promedio</t>
-  </si>
-  <si>
     <t>Tiempo de carga (ms)</t>
+  </si>
+  <si>
+    <t>Complejidad Esperada</t>
+  </si>
+  <si>
+    <t>Observaciones</t>
+  </si>
+  <si>
+    <t>Tiempo de Ejecución Dijkstra (ms)</t>
+  </si>
+  <si>
+    <t>O(E log V)</t>
+  </si>
+  <si>
+    <t>El algoritmo responde rápido con pocos nodos</t>
+  </si>
+  <si>
+    <t>El tiempo aumenta proporcionalmente con más conexiones</t>
+  </si>
+  <si>
+    <t>Crecimiento coherente con la complejidad teórica; aún eficiente</t>
+  </si>
+  <si>
+    <t>Escalamiento estable; el tiempo crece casi lineal respecto a E</t>
   </si>
 </sst>
 </file>
@@ -95,7 +116,13 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="8">
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -128,13 +155,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DB2A2AF5-B6A7-4119-9682-1A8D12B4DFB6}" name="Tabla1" displayName="Tabla1" ref="B2:E8" totalsRowShown="0" headerRowDxfId="5" dataDxfId="0">
-  <autoFilter ref="B2:E8" xr:uid="{DB2A2AF5-B6A7-4119-9682-1A8D12B4DFB6}"/>
-  <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{0BCD15F1-6696-4810-810F-2EAA2DACA19D}" name="Nodos" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{1CD50BA8-62C4-4A2C-B51B-D1B708D87C39}" name="Aristas" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{357807FC-6B23-47B2-8DE9-7CE5CC7B224C}" name="Tiempo de carga (ms)" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{F462A870-D42A-4A76-98CC-35DACCB661E8}" name="Conexiones Promedio" dataDxfId="1"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DB2A2AF5-B6A7-4119-9682-1A8D12B4DFB6}" name="Tabla1" displayName="Tabla1" ref="B2:G6" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+  <autoFilter ref="B2:G6" xr:uid="{DB2A2AF5-B6A7-4119-9682-1A8D12B4DFB6}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{0BCD15F1-6696-4810-810F-2EAA2DACA19D}" name="Nodos" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{B9B021B4-ED1E-4ABA-ABAC-19E1167C9D13}" name="Aristas" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{357807FC-6B23-47B2-8DE9-7CE5CC7B224C}" name="Tiempo de carga (ms)" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{F462A870-D42A-4A76-98CC-35DACCB661E8}" name="Tiempo de Ejecución Dijkstra (ms)" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{B4882598-2820-4788-8D88-B6C4AACA9840}" name="Complejidad Esperada" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{63D3D14C-FF3E-4EBD-AC7A-17D7FF3C1240}" name="Observaciones" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -457,19 +486,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7430BD91-E5CC-415D-B582-2A7FF0963356}">
-  <dimension ref="B2:E8"/>
+  <dimension ref="B2:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="4" max="4" width="23.5546875" customWidth="1"/>
-    <col min="5" max="5" width="23.44140625" customWidth="1"/>
+    <col min="5" max="5" width="33.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="52.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -477,100 +508,119 @@
         <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>2</v>
+      <c r="G2" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B3" s="2">
         <v>100</v>
       </c>
       <c r="C3" s="2">
-        <v>335</v>
+        <v>350</v>
       </c>
       <c r="D3" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E3" s="2">
-        <v>3.35</v>
+        <v>1333</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B4" s="2">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="C4" s="2">
-        <v>1237</v>
+        <v>1808</v>
       </c>
       <c r="D4" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E4" s="2">
-        <v>3.5342899999999999</v>
+        <v>9706</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B5" s="2">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="C5" s="2">
-        <v>2401</v>
+        <v>3508</v>
       </c>
       <c r="D5" s="2">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E5" s="2">
-        <v>3.43</v>
+        <v>17335</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B6" s="2">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="C6" s="2">
-        <v>3506</v>
+        <v>7053</v>
       </c>
       <c r="D6" s="2">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="E6" s="2">
-        <v>3.5059999999999998</v>
+        <v>37584</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B7" s="2">
-        <v>1500</v>
-      </c>
-      <c r="C7" s="2">
-        <v>5293</v>
-      </c>
-      <c r="D7" s="2">
-        <v>7</v>
-      </c>
-      <c r="E7" s="2">
-        <v>3.52867</v>
-      </c>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B8" s="2">
-        <v>2000</v>
-      </c>
-      <c r="C8" s="2">
-        <v>6858</v>
-      </c>
-      <c r="D8" s="2">
-        <v>9</v>
-      </c>
-      <c r="E8" s="2">
-        <v>3.4289999999999998</v>
-      </c>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Analisis.xlsx
+++ b/Analisis.xlsx
@@ -8,14 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\davo2\OneDrive\Documentos\Desktop\Ulima\Cursos\EDA II\TrabajoFinal_EDA2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F21C2ACA-9D41-4B2C-A0EC-D79A6AD37BC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CD9BE42-DA85-4F49-9984-E2F3F903455C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8E981F48-6E5D-4434-AEB1-AB5795A7AFCB}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{8E981F48-6E5D-4434-AEB1-AB5795A7AFCB}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja2" sheetId="2" r:id="rId1"/>
+    <sheet name="Hoja3" sheetId="3" r:id="rId2"/>
+    <sheet name="Hoja1" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <pivotCaches>
+    <pivotCache cacheId="20" r:id="rId4"/>
+    <pivotCache cacheId="42" r:id="rId5"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,39 +42,39 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="11">
   <si>
-    <t>Nodos</t>
+    <t>Estructura</t>
   </si>
   <si>
-    <t>Aristas</t>
+    <t>Escenario</t>
   </si>
   <si>
-    <t>Tiempo de carga (ms)</t>
+    <t>Nodos / Vehiculos</t>
   </si>
   <si>
-    <t>Complejidad Esperada</t>
+    <t>Tiempo Carga (ms)</t>
   </si>
   <si>
-    <t>Observaciones</t>
+    <t>Tiempo Ejecucion (ms)</t>
   </si>
   <si>
-    <t>Tiempo de Ejecución Dijkstra (ms)</t>
+    <t>Heap (min-heap)</t>
   </si>
   <si>
-    <t>O(E log V)</t>
+    <t>-</t>
   </si>
   <si>
-    <t>El algoritmo responde rápido con pocos nodos</t>
+    <t>AVL (Dijkstra)</t>
   </si>
   <si>
-    <t>El tiempo aumenta proporcionalmente con más conexiones</t>
+    <t>Hash</t>
   </si>
   <si>
-    <t>Crecimiento coherente con la complejidad teórica; aún eficiente</t>
+    <t>Suma de Tiempo Carga (ms)</t>
   </si>
   <si>
-    <t>Escalamiento estable; el tiempo crece casi lineal respecto a E</t>
+    <t>Suma de Tiempo Ejecucion (ms)</t>
   </si>
 </sst>
 </file>
@@ -104,7 +110,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -112,14 +118,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
+  <dxfs count="7">
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -154,16 +159,2730 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[Analisis.xlsx]Hoja2!TablaDinámica15</c:name>
+    <c:fmtId val="0"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-ES"/>
+              <a:t>Tiempo Carga (ms) por Estructura</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-ES"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-ES"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="4"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja2!$C$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Hoja2!$A$4:$B$10</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="7"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>-</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>3</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>AVL (Dijkstra)</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Hash</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Heap (min-heap)</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja2!$C$4:$C$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FCE7-487B-98DC-06C91A55A545}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1505915056"/>
+        <c:axId val="1505916976"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1505915056"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1505916976"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1505916976"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1505915056"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[Analisis.xlsx]Hoja3!TablaDinámica30</c:name>
+    <c:fmtId val="1"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Tiempo de Ejecución (ms)</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> por Estructura</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="circle"/>
+          <c:size val="5"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-ES"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja3!$C$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Hoja3!$A$5:$B$11</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="7"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Hash</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Heap (min-heap)</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Hash</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Heap (min-heap)</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Hash</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Heap (min-heap)</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>AVL (Dijkstra)</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>-</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja3!$C$5:$C$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4219</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DE65-462C-9C0E-F2EEC64791EE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1505906896"/>
+        <c:axId val="1505910736"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1505906896"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1505910736"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1505910736"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1505906896"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>655320</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A651959F-93BE-8E7C-F074-E3B24314A853}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>118110</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7098364-E6DE-A3DD-440D-BAF9A6213376}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="David Vilela R." refreshedDate="45971.814816435188" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="7" xr:uid="{082E0F56-3EF4-44C5-B5E3-79BD234F316A}">
+  <cacheSource type="worksheet">
+    <worksheetSource name="Tabla1"/>
+  </cacheSource>
+  <cacheFields count="5">
+    <cacheField name="Estructura" numFmtId="0">
+      <sharedItems count="3">
+        <s v="Heap (min-heap)"/>
+        <s v="AVL (Dijkstra)"/>
+        <s v="Hash"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Escenario" numFmtId="0">
+      <sharedItems containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="3" count="4">
+        <n v="1"/>
+        <n v="2"/>
+        <n v="3"/>
+        <s v="-"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Nodos / Vehiculos" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="20" maxValue="1000"/>
+    </cacheField>
+    <cacheField name="Tiempo Carga (ms)" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="3" maxValue="10"/>
+    </cacheField>
+    <cacheField name="Tiempo Ejecucion (ms)" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="4219"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="David Vilela R." refreshedDate="45971.815962615743" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="7" xr:uid="{3F46F501-D396-44FE-B354-4B31B1B7A9AF}">
+  <cacheSource type="worksheet">
+    <worksheetSource name="Tabla1"/>
+  </cacheSource>
+  <cacheFields count="5">
+    <cacheField name="Estructura" numFmtId="0">
+      <sharedItems count="3">
+        <s v="Heap (min-heap)"/>
+        <s v="AVL (Dijkstra)"/>
+        <s v="Hash"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Escenario" numFmtId="0">
+      <sharedItems containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="3" count="4">
+        <n v="1"/>
+        <n v="2"/>
+        <n v="3"/>
+        <s v="-"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Nodos / Vehiculos" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="20" maxValue="1000"/>
+    </cacheField>
+    <cacheField name="Tiempo Carga (ms)" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="3" maxValue="10"/>
+    </cacheField>
+    <cacheField name="Tiempo Ejecucion (ms)" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="4219" count="3">
+        <n v="0"/>
+        <n v="1"/>
+        <n v="4219"/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="7">
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="20"/>
+    <n v="4"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="50"/>
+    <n v="3"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="100"/>
+    <n v="4"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="3"/>
+    <n v="1000"/>
+    <n v="10"/>
+    <n v="4219"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="20"/>
+    <n v="9"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="50"/>
+    <n v="5"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="100"/>
+    <n v="6"/>
+    <n v="0"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="7">
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="20"/>
+    <n v="4"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="50"/>
+    <n v="3"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="100"/>
+    <n v="4"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="3"/>
+    <n v="1000"/>
+    <n v="10"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="20"/>
+    <n v="9"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="50"/>
+    <n v="5"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="100"/>
+    <n v="6"/>
+    <x v="0"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{42C37C93-0A61-4BC0-B8D6-A6479BA2B2C1}" name="TablaDinámica15" cacheId="20" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="1">
+  <location ref="A3:C10" firstHeaderRow="1" firstDataRow="1" firstDataCol="2"/>
+  <pivotFields count="5">
+    <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="2"/>
+        <item x="0"/>
+      </items>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+      </items>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField dataField="1" compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="2">
+    <field x="0"/>
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="7">
+    <i>
+      <x/>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="1"/>
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="2"/>
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Suma de Tiempo Carga (ms)" fld="3" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="4">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="3" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="4" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" fillDownLabelsDefault="1" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7FD577C4-6CB6-4A8B-9A9E-41728A689A0D}" name="TablaDinámica30" cacheId="42" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="4">
+  <location ref="A4:C11" firstHeaderRow="1" firstDataRow="1" firstDataCol="2"/>
+  <pivotFields count="5">
+    <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="2"/>
+        <item x="0"/>
+      </items>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+      </items>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField dataField="1" compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+      </items>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="2">
+    <field x="1"/>
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="7">
+    <i>
+      <x/>
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="1"/>
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="2"/>
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Suma de Tiempo Ejecucion (ms)" fld="4" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="5">
+    <chartFormat chart="0" format="4" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="5" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="6" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="7" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" fillDownLabelsDefault="1" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DB2A2AF5-B6A7-4119-9682-1A8D12B4DFB6}" name="Tabla1" displayName="Tabla1" ref="B2:G6" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
-  <autoFilter ref="B2:G6" xr:uid="{DB2A2AF5-B6A7-4119-9682-1A8D12B4DFB6}"/>
-  <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{0BCD15F1-6696-4810-810F-2EAA2DACA19D}" name="Nodos" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{B9B021B4-ED1E-4ABA-ABAC-19E1167C9D13}" name="Aristas" dataDxfId="0"/>
-    <tableColumn id="3" xr3:uid="{357807FC-6B23-47B2-8DE9-7CE5CC7B224C}" name="Tiempo de carga (ms)" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{F462A870-D42A-4A76-98CC-35DACCB661E8}" name="Tiempo de Ejecución Dijkstra (ms)" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{B4882598-2820-4788-8D88-B6C4AACA9840}" name="Complejidad Esperada" dataDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{63D3D14C-FF3E-4EBD-AC7A-17D7FF3C1240}" name="Observaciones" dataDxfId="1"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DB2A2AF5-B6A7-4119-9682-1A8D12B4DFB6}" name="Tabla1" displayName="Tabla1" ref="B2:F9" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+  <autoFilter ref="B2:F9" xr:uid="{DB2A2AF5-B6A7-4119-9682-1A8D12B4DFB6}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{0BCD15F1-6696-4810-810F-2EAA2DACA19D}" name="Estructura" dataDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{B9B021B4-ED1E-4ABA-ABAC-19E1167C9D13}" name="Escenario" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{357807FC-6B23-47B2-8DE9-7CE5CC7B224C}" name="Nodos / Vehiculos" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{F462A870-D42A-4A76-98CC-35DACCB661E8}" name="Tiempo Carga (ms)" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{B4882598-2820-4788-8D88-B6C4AACA9840}" name="Tiempo Ejecucion (ms)" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -485,15 +3204,238 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7430BD91-E5CC-415D-B582-2A7FF0963356}">
-  <dimension ref="B2:G8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AC1FF27-BDA0-4529-B9CD-2A30232E812F}">
+  <dimension ref="A3:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="3" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" s="4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10" s="4">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{237989BB-9614-4F53-AF71-729D811E4D34}">
+  <dimension ref="A4:C11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>2</v>
+      </c>
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>3</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>3</v>
+      </c>
+      <c r="B10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="4">
+        <v>4219</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7430BD91-E5CC-415D-B582-2A7FF0963356}">
+  <dimension ref="B2:G9"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="26.33203125" customWidth="1"/>
     <col min="4" max="4" width="23.5546875" customWidth="1"/>
     <col min="5" max="5" width="33.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="24.5546875" bestFit="1" customWidth="1"/>
@@ -511,110 +3453,133 @@
         <v>2</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="G2" s="1"/>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B3" s="2">
-        <v>100</v>
+      <c r="B3" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="C3" s="2">
-        <v>350</v>
+        <v>1</v>
       </c>
       <c r="D3" s="2">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="E3" s="2">
-        <v>1333</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G3" t="s">
-        <v>7</v>
+        <v>4</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B4" s="2">
-        <v>500</v>
+      <c r="B4" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="C4" s="2">
-        <v>1808</v>
+        <v>2</v>
       </c>
       <c r="D4" s="2">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="E4" s="2">
-        <v>9706</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G4" t="s">
-        <v>8</v>
+        <v>3</v>
+      </c>
+      <c r="F4" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B5" s="2">
-        <v>1000</v>
+      <c r="B5" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="C5" s="2">
-        <v>3508</v>
+        <v>3</v>
       </c>
       <c r="D5" s="2">
-        <v>7</v>
+        <v>100</v>
       </c>
       <c r="E5" s="2">
-        <v>17335</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G5" t="s">
-        <v>9</v>
+        <v>4</v>
+      </c>
+      <c r="F5" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B6" s="2">
-        <v>2000</v>
-      </c>
-      <c r="C6" s="2">
-        <v>7053</v>
+      <c r="B6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="D6" s="2">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="E6" s="2">
-        <v>37584</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G6" t="s">
         <v>10</v>
+      </c>
+      <c r="F6" s="2">
+        <v>4219</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
+      <c r="B7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="2">
+        <v>1</v>
+      </c>
+      <c r="D7" s="2">
+        <v>20</v>
+      </c>
+      <c r="E7" s="2">
+        <v>9</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0</v>
+      </c>
       <c r="G7" s="2"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
+      <c r="B8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="2">
+        <v>2</v>
+      </c>
+      <c r="D8" s="2">
+        <v>50</v>
+      </c>
+      <c r="E8" s="2">
+        <v>5</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0</v>
+      </c>
       <c r="G8" s="2"/>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="2">
+        <v>3</v>
+      </c>
+      <c r="D9" s="2">
+        <v>100</v>
+      </c>
+      <c r="E9" s="2">
+        <v>6</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
